--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABC/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABC/10/seed5/result_data_RandomForest.xlsx
@@ -482,10 +482,10 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.227300000000005</v>
+        <v>6.173700000000005</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.9358</v>
+        <v>-11.8505</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.62780000000001</v>
+        <v>-21.65990000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.2582</v>
+        <v>6.404099999999997</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>3.827400000000005</v>
+        <v>3.850700000000002</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.95829999999999</v>
+        <v>-12.94709999999999</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.857700000000005</v>
+        <v>4.491200000000003</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.24950000000001</v>
+        <v>-21.2776</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>9.457100000000002</v>
+        <v>9.187200000000006</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.4737</v>
+        <v>-19.5135</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.795400000000001</v>
+        <v>8.989900000000004</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.3997</v>
+        <v>-19.5382</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.47599999999999</v>
+        <v>-13.59899999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.617300000000001</v>
+        <v>5.598000000000003</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.8242</v>
+        <v>-21.74020000000001</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.88309999999998</v>
+        <v>-21.85859999999998</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.3472</v>
+        <v>-22.39670000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.676199999999995</v>
+        <v>5.114099999999997</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1420,7 +1420,7 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-13.64819999999999</v>
+        <v>-13.417</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.46049999999997</v>
+        <v>-21.43729999999997</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.61959999999998</v>
+        <v>-21.58569999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.92000000000001</v>
+        <v>-21.8537</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.89059999999999</v>
+        <v>-13.80799999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1947,7 +1947,7 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-11.0775</v>
+        <v>-11.251</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
@@ -1975,13 +1975,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.6228</v>
+        <v>-21.50610000000001</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-10.8866</v>
+        <v>-11.0225</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.4089</v>
+        <v>-11.3673</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.37529999999999</v>
+        <v>-20.35759999999999</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.185599999999998</v>
+        <v>5.148199999999998</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,10 +2165,10 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.230200000000002</v>
+        <v>8.113500000000004</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.00069999999999</v>
+        <v>-13.0024</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
